--- a/documentation/ganttChart.xlsx
+++ b/documentation/ganttChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Desktop/studying/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/GitHub/345project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB16A78-A39B-1C4E-BDA6-0D73B56D29BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC3CDD-B79F-5449-B958-3C54D3AC82D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27100" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2289,8 +2289,8 @@
   </sheetPr>
   <dimension ref="B1:BO47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="61" t="s">
@@ -2869,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M15" s="22"/>
       <c r="S15" s="22"/>
